--- a/Excel/AdminExcel/EmailController.xlsx
+++ b/Excel/AdminExcel/EmailController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outsource.minura\API_Testing\api-automation\Excel\AdminExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A0D12-157D-4EB9-8746-323451414BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697F1DD-D0B2-458A-AFC9-47DC0514AB67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Email must be a well-formed email address</t>
   </si>
   <si>
-    <t>Unable to find EmlTmplt with id 10</t>
-  </si>
-  <si>
     <t>{
   "emlTmpltId": 10,
   "isAutoBccToRtnEml": true,
@@ -123,6 +120,9 @@
   "outEmlSignature": "testSignature",
   "rtnEmlAdrs": "testmailgmail.com"
 }</t>
+  </si>
+  <si>
+    <t>Unable to find EmlTmplt with id 10</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +484,10 @@
         <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -512,10 +512,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25413E94-ACB8-4749-A169-C41472CF6217}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -562,10 +562,10 @@
         <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -576,10 +576,10 @@
         <v>400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
